--- a/artfynd/A 15738-2023.xlsx
+++ b/artfynd/A 15738-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111708099</v>
+        <v>111704319</v>
       </c>
       <c r="B2" t="n">
-        <v>90660</v>
+        <v>90710</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4362</v>
+        <v>5449</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111708126</v>
+        <v>111708040</v>
       </c>
       <c r="B3" t="n">
-        <v>90666</v>
+        <v>90658</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111708888</v>
+        <v>111708099</v>
       </c>
       <c r="B4" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111704319</v>
+        <v>111708029</v>
       </c>
       <c r="B5" t="n">
-        <v>90710</v>
+        <v>90662</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5449</v>
+        <v>4363</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111708040</v>
+        <v>111706580</v>
       </c>
       <c r="B6" t="n">
-        <v>90658</v>
+        <v>88032</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111708029</v>
+        <v>111708126</v>
       </c>
       <c r="B7" t="n">
-        <v>90662</v>
+        <v>90666</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111706580</v>
+        <v>111708888</v>
       </c>
       <c r="B8" t="n">
-        <v>88032</v>
+        <v>90678</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6276</v>
+        <v>4366</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 15738-2023.xlsx
+++ b/artfynd/A 15738-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111704319</v>
+        <v>111708888</v>
       </c>
       <c r="B2" t="n">
-        <v>90710</v>
+        <v>90678</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111708040</v>
+        <v>111708920</v>
       </c>
       <c r="B3" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111708099</v>
+        <v>111704319</v>
       </c>
       <c r="B4" t="n">
-        <v>90660</v>
+        <v>90710</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4362</v>
+        <v>5449</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111708029</v>
+        <v>111706580</v>
       </c>
       <c r="B5" t="n">
-        <v>90662</v>
+        <v>88032</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4363</v>
+        <v>6276</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111706580</v>
+        <v>111708040</v>
       </c>
       <c r="B6" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111708126</v>
+        <v>111708099</v>
       </c>
       <c r="B7" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111708888</v>
+        <v>111708029</v>
       </c>
       <c r="B8" t="n">
-        <v>90678</v>
+        <v>90662</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,21 +1374,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4366</v>
+        <v>4363</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 15738-2023.xlsx
+++ b/artfynd/A 15738-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111708888</v>
+        <v>111708040</v>
       </c>
       <c r="B2" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111708920</v>
+        <v>111708029</v>
       </c>
       <c r="B3" t="n">
-        <v>90666</v>
+        <v>90662</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>4363</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111704319</v>
+        <v>111706580</v>
       </c>
       <c r="B4" t="n">
-        <v>90710</v>
+        <v>88032</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5449</v>
+        <v>6276</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111706580</v>
+        <v>111708099</v>
       </c>
       <c r="B5" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111708040</v>
+        <v>111708920</v>
       </c>
       <c r="B6" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111708099</v>
+        <v>111704319</v>
       </c>
       <c r="B7" t="n">
-        <v>90660</v>
+        <v>90710</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4362</v>
+        <v>5449</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111708029</v>
+        <v>111708888</v>
       </c>
       <c r="B8" t="n">
-        <v>90662</v>
+        <v>90678</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,21 +1374,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4363</v>
+        <v>4366</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 15738-2023.xlsx
+++ b/artfynd/A 15738-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111708040</v>
+        <v>111708029</v>
       </c>
       <c r="B2" t="n">
-        <v>90658</v>
+        <v>90662</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4361</v>
+        <v>4363</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111708029</v>
+        <v>111706580</v>
       </c>
       <c r="B3" t="n">
-        <v>90662</v>
+        <v>88032</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4363</v>
+        <v>6276</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111706580</v>
+        <v>111708162</v>
       </c>
       <c r="B4" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111708099</v>
+        <v>111708126</v>
       </c>
       <c r="B5" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111708920</v>
+        <v>111704319</v>
       </c>
       <c r="B6" t="n">
-        <v>90666</v>
+        <v>90710</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111704319</v>
+        <v>111708888</v>
       </c>
       <c r="B7" t="n">
-        <v>90710</v>
+        <v>90678</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111708888</v>
+        <v>111708099</v>
       </c>
       <c r="B8" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 15738-2023.xlsx
+++ b/artfynd/A 15738-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111708029</v>
+        <v>111708162</v>
       </c>
       <c r="B2" t="n">
-        <v>90662</v>
+        <v>90658</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4363</v>
+        <v>4361</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111706580</v>
+        <v>111708126</v>
       </c>
       <c r="B3" t="n">
-        <v>88032</v>
+        <v>90666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111708162</v>
+        <v>111708099</v>
       </c>
       <c r="B4" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111708126</v>
+        <v>111706580</v>
       </c>
       <c r="B5" t="n">
-        <v>90666</v>
+        <v>88032</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111704319</v>
+        <v>111708888</v>
       </c>
       <c r="B6" t="n">
-        <v>90710</v>
+        <v>90678</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111708888</v>
+        <v>111704319</v>
       </c>
       <c r="B7" t="n">
-        <v>90678</v>
+        <v>90710</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>5449</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111708099</v>
+        <v>111708029</v>
       </c>
       <c r="B8" t="n">
-        <v>90660</v>
+        <v>90662</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 15738-2023.xlsx
+++ b/artfynd/A 15738-2023.xlsx
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111706580</v>
+        <v>111708888</v>
       </c>
       <c r="B5" t="n">
-        <v>88032</v>
+        <v>90678</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6276</v>
+        <v>4366</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111708888</v>
+        <v>111706580</v>
       </c>
       <c r="B6" t="n">
-        <v>90678</v>
+        <v>88032</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4366</v>
+        <v>6276</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 15738-2023.xlsx
+++ b/artfynd/A 15738-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111708162</v>
+        <v>111708040</v>
       </c>
       <c r="B2" t="n">
         <v>90658</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111708126</v>
+        <v>111708920</v>
       </c>
       <c r="B3" t="n">
         <v>90666</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111708099</v>
+        <v>111708888</v>
       </c>
       <c r="B4" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111708888</v>
+        <v>111706580</v>
       </c>
       <c r="B5" t="n">
-        <v>90678</v>
+        <v>88032</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4366</v>
+        <v>6276</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111706580</v>
+        <v>111708029</v>
       </c>
       <c r="B6" t="n">
-        <v>88032</v>
+        <v>90662</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6276</v>
+        <v>4363</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111704319</v>
+        <v>111708099</v>
       </c>
       <c r="B7" t="n">
-        <v>90710</v>
+        <v>90660</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5449</v>
+        <v>4362</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111708029</v>
+        <v>111704319</v>
       </c>
       <c r="B8" t="n">
-        <v>90662</v>
+        <v>90710</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4363</v>
+        <v>5449</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 15738-2023.xlsx
+++ b/artfynd/A 15738-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111708040</v>
+        <v>111708126</v>
       </c>
       <c r="B2" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111708920</v>
+        <v>111706580</v>
       </c>
       <c r="B3" t="n">
-        <v>90666</v>
+        <v>88032</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111706580</v>
+        <v>111708162</v>
       </c>
       <c r="B5" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111708029</v>
+        <v>111704319</v>
       </c>
       <c r="B6" t="n">
-        <v>90662</v>
+        <v>90710</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4363</v>
+        <v>5449</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111704319</v>
+        <v>111708029</v>
       </c>
       <c r="B8" t="n">
-        <v>90710</v>
+        <v>90662</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5449</v>
+        <v>4363</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 15738-2023.xlsx
+++ b/artfynd/A 15738-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111708126</v>
+        <v>111708099</v>
       </c>
       <c r="B2" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:14</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111708099</v>
+        <v>111708920</v>
       </c>
       <c r="B7" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD7" t="b">

--- a/artfynd/A 15738-2023.xlsx
+++ b/artfynd/A 15738-2023.xlsx
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111708162</v>
+        <v>111704319</v>
       </c>
       <c r="B5" t="n">
-        <v>90658</v>
+        <v>90710</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>5449</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111704319</v>
+        <v>111708162</v>
       </c>
       <c r="B6" t="n">
-        <v>90710</v>
+        <v>90658</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 15738-2023.xlsx
+++ b/artfynd/A 15738-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111708099</v>
+        <v>111708920</v>
       </c>
       <c r="B2" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:53</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111706580</v>
+        <v>111708099</v>
       </c>
       <c r="B3" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111708888</v>
+        <v>111708029</v>
       </c>
       <c r="B4" t="n">
-        <v>90678</v>
+        <v>90662</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4366</v>
+        <v>4363</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111704319</v>
+        <v>111708162</v>
       </c>
       <c r="B5" t="n">
-        <v>90710</v>
+        <v>90658</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111708162</v>
+        <v>111706580</v>
       </c>
       <c r="B6" t="n">
-        <v>90658</v>
+        <v>88032</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111708920</v>
+        <v>111708888</v>
       </c>
       <c r="B7" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111708029</v>
+        <v>111704319</v>
       </c>
       <c r="B8" t="n">
-        <v>90662</v>
+        <v>90710</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4363</v>
+        <v>5449</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AD8" t="b">

--- a/artfynd/A 15738-2023.xlsx
+++ b/artfynd/A 15738-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111708920</v>
+        <v>111706580</v>
       </c>
       <c r="B2" t="n">
-        <v>90666</v>
+        <v>88032</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>754510.9317113101</v>
+        <v>754511</v>
       </c>
       <c r="R2" t="n">
-        <v>7089952.473656449</v>
+        <v>7089952</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:53</t>
+          <t>14:48</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111708099</v>
+        <v>111708888</v>
       </c>
       <c r="B3" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>754510.9317113101</v>
+        <v>754511</v>
       </c>
       <c r="R3" t="n">
-        <v>7089952.473656449</v>
+        <v>7089952</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:16</t>
+          <t>13:54</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111708029</v>
+        <v>111708099</v>
       </c>
       <c r="B4" t="n">
-        <v>90662</v>
+        <v>90660</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4363</v>
+        <v>4362</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>754510.9317113101</v>
+        <v>754511</v>
       </c>
       <c r="R4" t="n">
-        <v>7089952.473656449</v>
+        <v>7089952</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>14:16</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,7 +1019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111708162</v>
+        <v>111708040</v>
       </c>
       <c r="B5" t="n">
         <v>90658</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>754510.9317113101</v>
+        <v>754511</v>
       </c>
       <c r="R5" t="n">
-        <v>7089952.473656449</v>
+        <v>7089952</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:12</t>
+          <t>14:20</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111706580</v>
+        <v>111708029</v>
       </c>
       <c r="B6" t="n">
-        <v>88032</v>
+        <v>90662</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6276</v>
+        <v>4363</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>754510.9317113101</v>
+        <v>754511</v>
       </c>
       <c r="R6" t="n">
-        <v>7089952.473656449</v>
+        <v>7089952</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:48</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111708888</v>
+        <v>111704319</v>
       </c>
       <c r="B7" t="n">
-        <v>90678</v>
+        <v>90710</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>5449</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>754510.9317113101</v>
+        <v>754511</v>
       </c>
       <c r="R7" t="n">
-        <v>7089952.473656449</v>
+        <v>7089952</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>15:11</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111704319</v>
+        <v>111708126</v>
       </c>
       <c r="B8" t="n">
-        <v>90710</v>
+        <v>90666</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>754510.9317113101</v>
+        <v>754511</v>
       </c>
       <c r="R8" t="n">
-        <v>7089952.473656449</v>
+        <v>7089952</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>14:14</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>754510.9317113101</v>
+        <v>754511</v>
       </c>
       <c r="R9" t="n">
-        <v>7089952.473656449</v>
+        <v>7089952</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>

--- a/artfynd/A 15738-2023.xlsx
+++ b/artfynd/A 15738-2023.xlsx
@@ -1019,7 +1019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111708040</v>
+        <v>111708162</v>
       </c>
       <c r="B5" t="n">
         <v>90658</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:12</t>
         </is>
       </c>
       <c r="AD5" t="b">
